--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.586675448453753</v>
+        <v>0.8019210000000001</v>
       </c>
       <c r="N2">
-        <v>0.586675448453753</v>
+        <v>2.405763</v>
       </c>
       <c r="O2">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="P2">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="Q2">
-        <v>85.26909105308216</v>
+        <v>130.231406649537</v>
       </c>
       <c r="R2">
-        <v>85.26909105308216</v>
+        <v>1172.082659845833</v>
       </c>
       <c r="S2">
-        <v>0.04728209908255574</v>
+        <v>0.06205772610506165</v>
       </c>
       <c r="T2">
-        <v>0.04728209908255574</v>
+        <v>0.06205772610506165</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.44128227662679</v>
+        <v>1.478072333333333</v>
       </c>
       <c r="N3">
-        <v>1.44128227662679</v>
+        <v>4.434217</v>
       </c>
       <c r="O3">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="P3">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="Q3">
-        <v>209.4800967089918</v>
+        <v>240.037907848483</v>
       </c>
       <c r="R3">
-        <v>209.4800967089918</v>
+        <v>2160.341170636347</v>
       </c>
       <c r="S3">
-        <v>0.116157667052555</v>
+        <v>0.1143825988164288</v>
       </c>
       <c r="T3">
-        <v>0.116157667052555</v>
+        <v>0.1143825988164288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.195593685188041</v>
+        <v>0.2551363333333334</v>
       </c>
       <c r="N4">
-        <v>0.195593685188041</v>
+        <v>0.765409</v>
       </c>
       <c r="O4">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="P4">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="Q4">
-        <v>28.42814676438888</v>
+        <v>41.433961172491</v>
       </c>
       <c r="R4">
-        <v>28.42814676438888</v>
+        <v>372.905650552419</v>
       </c>
       <c r="S4">
-        <v>0.01576353676868103</v>
+        <v>0.01974406542969907</v>
       </c>
       <c r="T4">
-        <v>0.01576353676868103</v>
+        <v>0.01974406542969907</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.45514739984399</v>
+        <v>2.517922333333333</v>
       </c>
       <c r="N5">
-        <v>2.45514739984399</v>
+        <v>7.553767</v>
       </c>
       <c r="O5">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="P5">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="Q5">
-        <v>356.8381593908439</v>
+        <v>408.908816833933</v>
       </c>
       <c r="R5">
-        <v>356.8381593908439</v>
+        <v>3680.179351505396</v>
       </c>
       <c r="S5">
-        <v>0.1978683834949222</v>
+        <v>0.1948527779118114</v>
       </c>
       <c r="T5">
-        <v>0.1978683834949222</v>
+        <v>0.1948527779118114</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.586675448453753</v>
+        <v>0.8019210000000001</v>
       </c>
       <c r="N6">
-        <v>0.586675448453753</v>
+        <v>2.405763</v>
       </c>
       <c r="O6">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="P6">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="Q6">
-        <v>38.35988097481909</v>
+        <v>52.45955849085801</v>
       </c>
       <c r="R6">
-        <v>38.35988097481909</v>
+        <v>472.1360264177221</v>
       </c>
       <c r="S6">
-        <v>0.02127072859164577</v>
+        <v>0.0249979708902246</v>
       </c>
       <c r="T6">
-        <v>0.02127072859164577</v>
+        <v>0.0249979708902246</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.44128227662679</v>
+        <v>1.478072333333333</v>
       </c>
       <c r="N7">
-        <v>1.44128227662679</v>
+        <v>4.434217</v>
       </c>
       <c r="O7">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="P7">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="Q7">
-        <v>94.23850397734549</v>
+        <v>96.69159683337757</v>
       </c>
       <c r="R7">
-        <v>94.23850397734549</v>
+        <v>870.2243715003981</v>
       </c>
       <c r="S7">
-        <v>0.0522556793724332</v>
+        <v>0.04607537296356251</v>
       </c>
       <c r="T7">
-        <v>0.0522556793724332</v>
+        <v>0.04607537296356251</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.195593685188041</v>
+        <v>0.2551363333333334</v>
       </c>
       <c r="N8">
-        <v>0.195593685188041</v>
+        <v>0.765409</v>
       </c>
       <c r="O8">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="P8">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="Q8">
-        <v>12.78892870498387</v>
+        <v>16.69034655738289</v>
       </c>
       <c r="R8">
-        <v>12.78892870498387</v>
+        <v>150.213119016446</v>
       </c>
       <c r="S8">
-        <v>0.007091519174425767</v>
+        <v>0.007953265513317778</v>
       </c>
       <c r="T8">
-        <v>0.007091519174425767</v>
+        <v>0.007953265513317778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.45514739984399</v>
+        <v>2.517922333333333</v>
       </c>
       <c r="N9">
-        <v>2.45514739984399</v>
+        <v>7.553767</v>
       </c>
       <c r="O9">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="P9">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="Q9">
-        <v>160.5302595870877</v>
+        <v>164.7158434820109</v>
       </c>
       <c r="R9">
-        <v>160.5302595870877</v>
+        <v>1482.442591338098</v>
       </c>
       <c r="S9">
-        <v>0.08901475957823894</v>
+        <v>0.07849021186938994</v>
       </c>
       <c r="T9">
-        <v>0.08901475957823894</v>
+        <v>0.07849021186938994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.586675448453753</v>
+        <v>0.8019210000000001</v>
       </c>
       <c r="N10">
-        <v>0.586675448453753</v>
+        <v>2.405763</v>
       </c>
       <c r="O10">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="P10">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="Q10">
-        <v>66.62121000085625</v>
+        <v>101.28819030481</v>
       </c>
       <c r="R10">
-        <v>66.62121000085625</v>
+        <v>911.5937127432902</v>
       </c>
       <c r="S10">
-        <v>0.03694176416515675</v>
+        <v>0.04826573660936195</v>
       </c>
       <c r="T10">
-        <v>0.03694176416515675</v>
+        <v>0.04826573660936195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.44128227662679</v>
+        <v>1.478072333333333</v>
       </c>
       <c r="N11">
-        <v>1.44128227662679</v>
+        <v>4.434217</v>
       </c>
       <c r="O11">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="P11">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="Q11">
-        <v>163.6679521441312</v>
+        <v>186.6907984489011</v>
       </c>
       <c r="R11">
-        <v>163.6679521441312</v>
+        <v>1680.21718604011</v>
       </c>
       <c r="S11">
-        <v>0.09075462438200911</v>
+        <v>0.08896169314714504</v>
       </c>
       <c r="T11">
-        <v>0.09075462438200911</v>
+        <v>0.08896169314714505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.195593685188041</v>
+        <v>0.2551363333333334</v>
       </c>
       <c r="N12">
-        <v>0.195593685188041</v>
+        <v>0.765409</v>
       </c>
       <c r="O12">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="P12">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="Q12">
-        <v>22.21106748219589</v>
+        <v>32.22549039660778</v>
       </c>
       <c r="R12">
-        <v>22.21106748219589</v>
+        <v>290.02941356947</v>
       </c>
       <c r="S12">
-        <v>0.01231613801029907</v>
+        <v>0.01535605510286554</v>
       </c>
       <c r="T12">
-        <v>0.01231613801029907</v>
+        <v>0.01535605510286554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.45514739984399</v>
+        <v>2.517922333333333</v>
       </c>
       <c r="N13">
-        <v>2.45514739984399</v>
+        <v>7.553767</v>
       </c>
       <c r="O13">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="P13">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="Q13">
-        <v>278.7996172997451</v>
+        <v>318.0310734740678</v>
       </c>
       <c r="R13">
-        <v>278.7996172997451</v>
+        <v>2862.27966126661</v>
       </c>
       <c r="S13">
-        <v>0.1545956567208966</v>
+        <v>0.1515478159862339</v>
       </c>
       <c r="T13">
-        <v>0.1545956567208966</v>
+        <v>0.151547815986234</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H14">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.586675448453753</v>
+        <v>0.8019210000000001</v>
       </c>
       <c r="N14">
-        <v>0.586675448453753</v>
+        <v>2.405763</v>
       </c>
       <c r="O14">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="P14">
-        <v>0.1253928650388241</v>
+        <v>0.1587003260603691</v>
       </c>
       <c r="Q14">
-        <v>35.88477885217964</v>
+        <v>49.061837123427</v>
       </c>
       <c r="R14">
-        <v>35.88477885217964</v>
+        <v>441.556534110843</v>
       </c>
       <c r="S14">
-        <v>0.01989827319946586</v>
+        <v>0.02337889245572088</v>
       </c>
       <c r="T14">
-        <v>0.01989827319946586</v>
+        <v>0.02337889245572088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H15">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.44128227662679</v>
+        <v>1.478072333333333</v>
       </c>
       <c r="N15">
-        <v>1.44128227662679</v>
+        <v>4.434217</v>
       </c>
       <c r="O15">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="P15">
-        <v>0.3080519467317691</v>
+        <v>0.2925108099685761</v>
       </c>
       <c r="Q15">
-        <v>88.15793450472883</v>
+        <v>90.42903736732633</v>
       </c>
       <c r="R15">
-        <v>88.15793450472883</v>
+        <v>813.861336305937</v>
       </c>
       <c r="S15">
-        <v>0.04888397592477187</v>
+        <v>0.04309114504143977</v>
       </c>
       <c r="T15">
-        <v>0.04888397592477187</v>
+        <v>0.04309114504143978</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H16">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.195593685188041</v>
+        <v>0.2551363333333334</v>
       </c>
       <c r="N16">
-        <v>0.195593685188041</v>
+        <v>0.765409</v>
       </c>
       <c r="O16">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="P16">
-        <v>0.04180514564546949</v>
+        <v>0.05049153132272008</v>
       </c>
       <c r="Q16">
-        <v>11.96374615020043</v>
+        <v>15.60933961109433</v>
       </c>
       <c r="R16">
-        <v>11.96374615020043</v>
+        <v>140.484056499849</v>
       </c>
       <c r="S16">
-        <v>0.006633951692063622</v>
+        <v>0.007438145276837686</v>
       </c>
       <c r="T16">
-        <v>0.006633951692063622</v>
+        <v>0.007438145276837687</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H17">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.45514739984399</v>
+        <v>2.517922333333333</v>
       </c>
       <c r="N17">
-        <v>2.45514739984399</v>
+        <v>7.553767</v>
       </c>
       <c r="O17">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="P17">
-        <v>0.5247500425839373</v>
+        <v>0.4982973326483348</v>
       </c>
       <c r="Q17">
-        <v>150.1723341672282</v>
+        <v>154.0474627892763</v>
       </c>
       <c r="R17">
-        <v>150.1723341672282</v>
+        <v>1386.427165103487</v>
       </c>
       <c r="S17">
-        <v>0.0832712427898796</v>
+        <v>0.07340652688089945</v>
       </c>
       <c r="T17">
-        <v>0.0832712427898796</v>
+        <v>0.07340652688089946</v>
       </c>
     </row>
   </sheetData>
